--- a/data/MSME Country Indicators - Cambodia Summary.xlsx
+++ b/data/MSME Country Indicators - Cambodia Summary.xlsx
@@ -5,13 +5,13 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Summary" sheetId="1" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Cambodia</t>
   </si>
@@ -19,6 +19,9 @@
     <t>MSME Participation on the Economy</t>
   </si>
   <si>
+    <t>Source Type: Statistical Institution (Most Widely Used)</t>
+  </si>
+  <si>
     <t>Micro</t>
   </si>
   <si>
@@ -61,6 +64,9 @@
     <t>17.3</t>
   </si>
   <si>
+    <t>74.6</t>
+  </si>
+  <si>
     <t>Employment (absolute #)</t>
   </si>
   <si>
@@ -86,6 +92,12 @@
   </si>
   <si>
     <t>Source: NIS, 2009</t>
+  </si>
+  <si>
+    <t>NIS</t>
+  </si>
+  <si>
+    <t>National Institute of Statistics (NIS), "Nation-wide Establishment Listing of Cambodia 2009", 2009, p. II-3, II-4. Available at http://catalog.ihsn.org/index.php/catalog/1496/related_materials</t>
   </si>
 </sst>
 </file>
@@ -93,7 +105,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -104,6 +116,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
@@ -136,26 +154,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" fontId="1"/>
     <xf numFmtId="0" fontId="2"/>
     <xf numFmtId="0" fontId="3"/>
     <xf numFmtId="0" fontId="4"/>
+    <xf numFmtId="0" fontId="5"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" xfId="2"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" xfId="3"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" xfId="4"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" xfId="5"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="name" xfId="1"/>
     <cellStyle name="title" xfId="2"/>
-    <cellStyle name="source" xfId="3"/>
-    <cellStyle name="HyperLink" xfId="4"/>
+    <cellStyle name="title_" xfId="3"/>
+    <cellStyle name="source" xfId="4"/>
+    <cellStyle name="HyperLink" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -163,7 +184,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -179,87 +200,105 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="2" t="s">
+    <row r="7">
+      <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="9">
+      <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="D13" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="0" t="s">
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="B14" s="0" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="C14" s="0" t="s">
         <v>24</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/data/MSME Country Indicators - Cambodia Summary.xlsx
+++ b/data/MSME Country Indicators - Cambodia Summary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Cambodia</t>
   </si>
@@ -92,6 +92,51 @@
   </si>
   <si>
     <t>Source: NIS, 2009</t>
+  </si>
+  <si>
+    <t>Number of employees</t>
+  </si>
+  <si>
+    <t>Assets (local currency, unless noted otherwise)</t>
+  </si>
+  <si>
+    <t>Turnover (local currency, unless noted otherwise)</t>
+  </si>
+  <si>
+    <t>&lt;=10</t>
+  </si>
+  <si>
+    <t>&lt; USD50,000</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>11-50</t>
+  </si>
+  <si>
+    <t>USD50,000 - USD 250,000</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>51-100</t>
+  </si>
+  <si>
+    <t>USD 250,000 - USD 500,000</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>&gt;100</t>
+  </si>
+  <si>
+    <t>&gt;USD 500,000</t>
   </si>
   <si>
     <t>NIS</t>
@@ -184,7 +229,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -291,14 +336,81 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="s">
+    <row r="18">
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>28</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/MSME Country Indicators - Cambodia Summary.xlsx
+++ b/data/MSME Country Indicators - Cambodia Summary.xlsx
@@ -142,7 +142,7 @@
     <t>NIS</t>
   </si>
   <si>
-    <t>National Institute of Statistics (NIS), "Nation-wide Establishment Listing of Cambodia 2009", 2009, p. II-3, II-4. Available at http://catalog.ihsn.org/index.php/catalog/1496/related_materials</t>
+    <t>International Finance Corporation (IFC), "Understanding Cambodian Small and Medium Enterprise Needs for Financial Services and Products", 2010, p.1. Available at http://www.ifc.org/wps/wcm/connect/70858880474dce1595069f11d57e6c63/Cam+SME-Financial+Services+and+Products.pdf?MOD=AJPERES</t>
   </si>
 </sst>
 </file>

--- a/data/MSME Country Indicators - Cambodia Summary.xlsx
+++ b/data/MSME Country Indicators - Cambodia Summary.xlsx
@@ -46,25 +46,25 @@
     <t>Enterprises density (per 1000 people)</t>
   </si>
   <si>
-    <t>25.7</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>26.6</t>
+    <t>25.71</t>
+  </si>
+  <si>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>26.59</t>
   </si>
   <si>
     <t>Employment (% of total)</t>
   </si>
   <si>
-    <t>57.4</t>
-  </si>
-  <si>
-    <t>17.3</t>
-  </si>
-  <si>
-    <t>74.6</t>
+    <t>57.38</t>
+  </si>
+  <si>
+    <t>17.26</t>
+  </si>
+  <si>
+    <t>74.64</t>
   </si>
   <si>
     <t>Employment (absolute #)</t>
@@ -82,13 +82,13 @@
     <t>Enterprises (% of total)</t>
   </si>
   <si>
-    <t>96.5</t>
+    <t>96.52</t>
   </si>
   <si>
     <t>3.3</t>
   </si>
   <si>
-    <t>99.8</t>
+    <t>99.82</t>
   </si>
   <si>
     <t>Source: NIS, 2009</t>
